--- a/OCS/OCS_3.xlsx
+++ b/OCS/OCS_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joachim.Wan\Desktop\OpsProject\dccs_generator\OCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496A3479-EE14-437E-80ED-EBFEAC07E24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6201653F-14EF-450D-8D74-3F2750C7EBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCS Input" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>Description 9</t>
   </si>
   <si>
-    <t>1 unit/day recur daily from start date 2023/03/02 to 2023/06/01</t>
+    <t>1 unit/day from 2020/01/01 to 2030/01/01</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
